--- a/spreadsheets/Notes_only_uploader_tool_metadata_v5_genome_assemblies.xlsx
+++ b/spreadsheets/Notes_only_uploader_tool_metadata_v5_genome_assemblies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zahra\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azyoud.EBI\Documents\EBI\COVID19_data_portal\drag_and_drop_automation\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C9F100-CBBE-4847-B202-A5BC0685519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6BE0F-8D9A-4912-A357-A59E3E2F568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23BF9E83-3E3B-E240-A0C0-6442028F11EC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="572">
   <si>
     <t>Study</t>
   </si>
@@ -1783,6 +1783,141 @@
   </si>
   <si>
     <t>not provided</t>
+  </si>
+  <si>
+    <t>PRJEB555555</t>
+  </si>
+  <si>
+    <t>T557</t>
+  </si>
+  <si>
+    <t>ilie.m@chu-nice.fr</t>
+  </si>
+  <si>
+    <t>LPCE_CHU_NICE</t>
+  </si>
+  <si>
+    <t>Setting-up a rapid SARS-CoV-2 genome assessment by next-generation sequencing in an academic hospital center (LPCE, Louis Pasteur Hospital, Nice, France) </t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing using the Genexus System for Rapid Genotyping of SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing using the Genexus System for Rapid Genotyping of SARS-CoV-3</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing using the Genexus System for Rapid Genotyping of SARS-CoV-4</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing using the Genexus System for Rapid Genotyping of SARS-CoV-5</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing using the Genexus System for Rapid Genotyping of SARS-CoV-6</t>
+  </si>
+  <si>
+    <t>PRJEB555556</t>
+  </si>
+  <si>
+    <t>ERS6584</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>NW-UBI-221</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 sample with a 168 bp deletion in ORF8</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Christiane Scherer</t>
+  </si>
+  <si>
+    <t>Evangelisches Klinikum Bethel, Institut für Laboratoriumsmedizin, Mikrobiologie und Hygiene, Bielefeld, Germany</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-221/2021</t>
+  </si>
+  <si>
+    <t>North-Rhine Westphalia, Bielefeld</t>
+  </si>
+  <si>
+    <t>ERS6585</t>
+  </si>
+  <si>
+    <t>NW-UBI-222</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-222/2021</t>
+  </si>
+  <si>
+    <t>ERS6586</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>NW-UBI-223</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-223/2021</t>
+  </si>
+  <si>
+    <t>ERS6587</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>NW-UBI-224</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-224/2021</t>
+  </si>
+  <si>
+    <t>NW-UBI-225</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-225/2021</t>
+  </si>
+  <si>
+    <t>ERS6589</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>NW-UBI-226</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-226/2021</t>
+  </si>
+  <si>
+    <t>ERS6590</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>NW-UBI-227</t>
+  </si>
+  <si>
+    <t>hCoV-19/Germany/NW-UBI-227/2021</t>
+  </si>
+  <si>
+    <t>L29</t>
+  </si>
+  <si>
+    <t>O7</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2180,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2054,7 +2189,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2085,12 +2219,8 @@
     <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="4" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2106,16 +2236,16 @@
   <dxfs count="12">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2364,7 +2494,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{FC001B23-586A-48C7-8CC7-C1EF6D2CADCE}" name="Table5" displayName="Table5" ref="C1:C9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{FC001B23-586A-48C7-8CC7-C1EF6D2CADCE}" name="Table5" displayName="Table5" ref="C1:C9" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="C1:C9" xr:uid="{FC001B23-586A-48C7-8CC7-C1EF6D2CADCE}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C6418782-AA74-40A1-B1F3-A50075DA1F90}" name="Sequencing Platform"/>
@@ -2682,34 +2812,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF0ECBC-C68B-874D-9EA3-56F77697927C}">
   <dimension ref="A1:BF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="123.08203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" style="10"/>
-    <col min="7" max="8" width="11.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="10"/>
-    <col min="11" max="11" width="15.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="9"/>
+    <col min="7" max="8" width="11.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="9"/>
+    <col min="11" max="11" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.58203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2"/>
     <col min="14" max="14" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="2"/>
-    <col min="18" max="18" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="5"/>
     <col min="22" max="22" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.58203125" style="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.58203125" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -2718,7 +2848,7 @@
     <col min="31" max="31" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="11" style="5"/>
-    <col min="35" max="35" width="33.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.58203125" style="22" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="26.5" style="5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="36.08203125" style="5" bestFit="1" customWidth="1"/>
@@ -2731,28 +2861,28 @@
     <col min="45" max="45" width="30" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="14.83203125" style="5" customWidth="1"/>
     <col min="47" max="47" width="11" style="5"/>
-    <col min="48" max="53" width="11" style="15"/>
-    <col min="54" max="54" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="52.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.58203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="30.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="53" width="11" style="14"/>
+    <col min="54" max="54" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="52.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.58203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30.25" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2891,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="24"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="6" t="s">
         <v>127</v>
       </c>
@@ -2770,7 +2900,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="26"/>
+      <c r="Y1" s="25"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
@@ -2780,65 +2910,65 @@
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="13" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>183</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -2859,7 +2989,7 @@
       <c r="Q2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>134</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -2880,7 +3010,7 @@
       <c r="X2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="27" t="s">
         <v>140</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -2910,76 +3040,76 @@
       <c r="AH2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AW2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AX2" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AY2" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BA2" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BE2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2987,34 +3117,34 @@
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -3035,7 +3165,7 @@
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -3056,7 +3186,7 @@
       <c r="X3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -3086,76 +3216,76 @@
       <c r="AH3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AK3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AL3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AQ3" s="17" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="AR3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="AT3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AU3" s="17" t="s">
+      <c r="AU3" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AX3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AY3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AZ3" s="14" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="BA3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BB3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BD3" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BE3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BF3" s="14" t="s">
+      <c r="BF3" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3163,194 +3293,194 @@
       <c r="A4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>30</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="32">
         <v>2697049</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="32">
         <v>131</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF4" s="33" t="s">
+      <c r="AF4" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AH4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AI4" s="34" t="s">
+      <c r="AI4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="AJ4" s="35" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="AK4" s="35" t="s">
+      <c r="AK4" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="AL4" s="35" t="s">
+      <c r="AL4" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="AM4" s="35" t="s">
+      <c r="AM4" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="AN4" s="35">
+      <c r="AN4" s="34">
         <v>10</v>
       </c>
-      <c r="AO4" s="35">
+      <c r="AO4" s="34">
         <v>181</v>
       </c>
-      <c r="AP4" s="35" t="s">
+      <c r="AP4" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35" t="s">
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="AS4" s="35" t="s">
+      <c r="AS4" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="AT4" s="35" t="s">
+      <c r="AT4" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="36" t="s">
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AW4" s="36" t="s">
+      <c r="AW4" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AX4" s="36" t="s">
+      <c r="AX4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="36" t="s">
+      <c r="AY4" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="AZ4" s="36" t="s">
+      <c r="AZ4" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="BA4" s="36" t="s">
+      <c r="BA4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="BB4" s="36" t="s">
+      <c r="BB4" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="36" t="s">
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="BF4" s="36"/>
+      <c r="BF4" s="35"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="24"/>
+      <c r="R5" s="23"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="26"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -3360,170 +3490,617 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="17" t="s">
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="AK5" s="17" t="s">
+      <c r="AK5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17" t="s">
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="U6" s="38">
+        <v>2697049</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y6" s="39">
+        <v>44218</v>
+      </c>
+      <c r="Z6" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB6" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF6" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38">
+        <v>2697049</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="W7" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y7" s="39">
+        <v>44217</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA7" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB7" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC7" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD7" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG7" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH7" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>224</v>
       </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2697049</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>44216</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>181</v>
       </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2697049</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>44216</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="10" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>225</v>
       </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="T10" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="U10" s="5">
+        <v>2697049</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>44215</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>226</v>
       </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2697049</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>44215</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>227</v>
       </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="S12" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2697049</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>44215</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3531,22 +4108,22 @@
   <dataValidations xWindow="1196" yWindow="270" count="60">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please select from the list..." sqref="H2:H5" xr:uid="{DD3C79FC-D7FD-4055-B848-9611E35AC3E1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="individual isolate from which the sample was obtained" sqref="AH1:AH5 AH8:AH1048576" xr:uid="{171B327E-31DC-4028-A88E-47AA40572AA3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add a unique name for your assembly" sqref="B2:B5 B8:B1048576" xr:uid="{200194BD-B30D-43E2-A15B-497E8517948C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please Use the accepted format: COVID-19 outbreak" sqref="C2:C5 C8:C1048576" xr:uid="{806299DB-55BC-40F7-BEC9-5123DD216DBD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="The estimated depth of sequencing coverage._x000a_commas are NOT accepted" sqref="D8:D1048576" xr:uid="{C4AAFD98-1A0F-4FB9-8515-7D314DB7DCFF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add a unique name for your assembly" sqref="B2:B5 B13:B1048576" xr:uid="{200194BD-B30D-43E2-A15B-497E8517948C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please Use the accepted format: COVID-19 outbreak" sqref="C2:C5 C13:C1048576" xr:uid="{806299DB-55BC-40F7-BEC9-5123DD216DBD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="The estimated depth of sequencing coverage._x000a_commas are NOT accepted" sqref="D13:D1048576" xr:uid="{C4AAFD98-1A0F-4FB9-8515-7D314DB7DCFF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The estimated depth of sequencing coverage._x000a_commas are NOT accepted" sqref="D2:D5" xr:uid="{2924AA06-E380-479A-B91B-0B997CEA4F9B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The assembly program" sqref="E2:E5 E8:E1048576" xr:uid="{1E59DDAE-D080-46A7-A9CE-D566561FBDEE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The sequencing platform" sqref="F2:F5 F8:F1048576" xr:uid="{2CCA38BE-25BD-4EE2-B862-819752B0AF79}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Minimum length of consecutive Ns to be considered a gap" sqref="G2:G5 G8:G1048576" xr:uid="{425C43E4-0792-4C7A-9DB3-B46DF8435993}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="Please select from the list..." sqref="H8:H1048576" xr:uid="{85A945BA-0DD2-4F3E-865C-6E073CED7D09}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning" error="Please make sure there are no empty fields in this column before continuing" promptTitle="Note" prompt="Free text description of the genome assembly" sqref="I8:I1048576" xr:uid="{3E81326C-0EEB-477F-8803-6950C171BEF2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The assembly program" sqref="E2:E5 E13:E1048576" xr:uid="{1E59DDAE-D080-46A7-A9CE-D566561FBDEE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The sequencing platform" sqref="F2:F5 F13:F1048576" xr:uid="{2CCA38BE-25BD-4EE2-B862-819752B0AF79}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Minimum length of consecutive Ns to be considered a gap" sqref="G2:G5 G13:G1048576" xr:uid="{425C43E4-0792-4C7A-9DB3-B46DF8435993}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note " prompt="Please select from the list..." sqref="H13:H1048576" xr:uid="{85A945BA-0DD2-4F3E-865C-6E073CED7D09}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning" error="Please make sure there are no empty fields in this column before continuing" promptTitle="Note" prompt="Free text description of the genome assembly" sqref="I13:I1048576" xr:uid="{3E81326C-0EEB-477F-8803-6950C171BEF2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Free text description of the genome assembly" sqref="I2:I5" xr:uid="{764517FE-EEFC-4065-8107-3D0876EC45AD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add the run accession here if you have one " sqref="J2:J5 J8:J1048576" xr:uid="{594BB2EB-2A64-41FF-918E-31FFCF84FC1E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add here the full name of the fasta/flatfile.." sqref="K2:K5 K8:K1048576" xr:uid="{AF08C299-A643-4613-B22A-19E067D9479E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Please include the date you would like to make your study (and all associated data) public. If you would like the study to be made public immediately, please enter the current date." sqref="R1:R5 R8:R1048576" xr:uid="{6C656A3C-7578-4AF0-A44A-1822C6FF4F68}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add the run accession here if you have one " sqref="J2:J5 J13:J1048576" xr:uid="{594BB2EB-2A64-41FF-918E-31FFCF84FC1E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Please add here the full name of the fasta/flatfile.." sqref="K2:K5 K13:K1048576" xr:uid="{AF08C299-A643-4613-B22A-19E067D9479E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Please include the date you would like to make your study (and all associated data) public. If you would like the study to be made public immediately, please enter the current date." sqref="R1:R5 R11:R1048576" xr:uid="{6C656A3C-7578-4AF0-A44A-1822C6FF4F68}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Briefly describe the goals, purpose and scope of the Study" sqref="Q1:Q5 Q8:Q1048576" xr:uid="{A1CA18E6-D9D3-4FF8-BCA3-32163E7DE2B9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please add a unique name for your study" sqref="O1:O5 O8:O1048576" xr:uid="{7CDB26EE-CE3C-4028-A69A-8BA8DF86EC36}"/>
-    <dataValidation allowBlank="1" sqref="AY1:AY1048576 N1:N5 N8:N1048576" xr:uid="{D3D41C6A-C5AD-4051-9C1A-F901E8458825}"/>
+    <dataValidation allowBlank="1" sqref="AY1:AY1048576 N1:N5 N8:N1048576 E6:E12" xr:uid="{D3D41C6A-C5AD-4051-9C1A-F901E8458825}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="ensure each study has a unique name" sqref="M1:M5 M8:M1048576" xr:uid="{42D716D3-5889-480A-9ECA-0B379725316D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="if you have pre-registered a study please enter the study accession (format: PRJEB#### or ERP####)" sqref="L1:L5 L8:L1048576" xr:uid="{EC98FB1E-E6FF-4F95-88C9-1137A4E149DF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Name of host tissue or organ sampled for the analysis" sqref="AS4" xr:uid="{C583E7C0-D02E-4173-8086-6326C9877323}"/>
@@ -3579,15 +4156,15 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Warning" error="Please make sure there are no empty fields in this column before continuing_x000a_" promptTitle="Note" prompt="common name of the host, e.g. human" sqref="AA8:AA1048576" xr:uid="{98D28B36-7223-4213-B95E-55328F0E33BD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="common name of the host, e.g. human" sqref="AA1:AA5" xr:uid="{86996774-A992-4ED3-A265-1D8811DB0F12}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Please add here the full name of the second file of paired fastq._x000a_in case of single fastq and other raw read data, add: not applicable" sqref="BF1:BF1048576" xr:uid="{729A0934-A395-4A23-A73A-D2495D7FADA4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please add here the full file name according to the following: _x000a_if single fastq and other raw read data :  complete the 'uploaded file 1' column only_x000a_if paired fastq: complete both uploaded file 1 and 2 columns" sqref="BE1:BE1048576" xr:uid="{2B8CAD6F-DD29-4525-9175-88A141D333BD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Mandatory for the paired fastq and optional for single fastq and other read data" sqref="BD1:BD1048576 BE4" xr:uid="{C3E21950-F04D-428E-97E2-08C2D87CDEF3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please include a brief description of the library used" sqref="BC1:BC1048576" xr:uid="{040398A2-FDF4-4EFC-9795-DE215B42FFED}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The sequencing technique intended for this library. _x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="BB1:BB1048576" xr:uid="{006C2EC0-9CB9-4F68-80C2-C987EF935971}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="specifies which method was used to select for, against, enrich, or screen, the material being sequenced. _x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="BA1:BA1048576" xr:uid="{F3454480-1B3E-4016-BEE4-D2BF7A55E8ED}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="specifies the type of material being sequenced._x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AZ1:AZ1048576" xr:uid="{8C78EDD2-1E9D-4AD4-B09C-E6B9D0C5491A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AX1:AX1048576" xr:uid="{1003AF7B-E4D4-4C6F-A6E7-8A2CF2F88632}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AW1:AW1048576 AV6:AV7" xr:uid="{A2841104-53E9-4F83-9DA2-6BD0ADE4107D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please ensure each row has a unique experiment name " sqref="AV2:AV5 AV8:AV1048576" xr:uid="{1BEBD135-9134-4217-AEB8-A38A23F981E7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please add here the full file name according to the following: _x000a_if single fastq and other raw read data :  complete the 'uploaded file 1' column only_x000a_if paired fastq: complete both uploaded file 1 and 2 columns" sqref="BE1:BE1048576 K6:K12" xr:uid="{2B8CAD6F-DD29-4525-9175-88A141D333BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Mandatory for the paired fastq and optional for single fastq and other read data" sqref="BD1:BD1048576 BE4 J6:J12" xr:uid="{C3E21950-F04D-428E-97E2-08C2D87CDEF3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please include a brief description of the library used" sqref="BC1:BC1048576 I6:I12" xr:uid="{040398A2-FDF4-4EFC-9795-DE215B42FFED}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="The sequencing technique intended for this library. _x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="BB1:BB1048576 H6:H12" xr:uid="{006C2EC0-9CB9-4F68-80C2-C987EF935971}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="specifies which method was used to select for, against, enrich, or screen, the material being sequenced. _x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="BA1:BA1048576 G6:G12" xr:uid="{F3454480-1B3E-4016-BEE4-D2BF7A55E8ED}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="specifies the type of material being sequenced._x000a_Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AZ1:AZ1048576 F6:F12" xr:uid="{8C78EDD2-1E9D-4AD4-B09C-E6B9D0C5491A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AX1:AX1048576 D6:D12" xr:uid="{1003AF7B-E4D4-4C6F-A6E7-8A2CF2F88632}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Please select from the list on the 'Accepted_Values' sheet of this spreadsheet" sqref="AW1:AW1048576 AV6:AV7 C6:C12" xr:uid="{A2841104-53E9-4F83-9DA2-6BD0ADE4107D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="please ensure each row has a unique experiment name " sqref="AV2:AV5 AV8:AV1048576 B6:B12" xr:uid="{1BEBD135-9134-4217-AEB8-A38A23F981E7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Note" prompt="Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. Example: soil" sqref="AU1:AU5 AU8:AU1048576" xr:uid="{B0B71D04-3F8D-4515-90B4-F7D5ACAEE307}"/>
   </dataValidations>
   <hyperlinks>
@@ -3621,19 +4198,19 @@
       <c r="A1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3644,16 +4221,16 @@
       <c r="C2" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3664,16 +4241,16 @@
       <c r="C3" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3684,16 +4261,16 @@
       <c r="C4" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3704,16 +4281,16 @@
       <c r="C5" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>246</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3724,16 +4301,16 @@
       <c r="C6" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>249</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3744,16 +4321,16 @@
       <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>251</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3764,16 +4341,16 @@
       <c r="C8" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3784,16 +4361,16 @@
       <c r="C9" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>257</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3801,16 +4378,16 @@
       <c r="A10" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3818,13 +4395,13 @@
       <c r="A11" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3832,13 +4409,13 @@
       <c r="A12" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3846,13 +4423,13 @@
       <c r="A13" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3860,13 +4437,13 @@
       <c r="A14" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3874,13 +4451,13 @@
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3888,13 +4465,13 @@
       <c r="A16" t="s">
         <v>264</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3902,13 +4479,13 @@
       <c r="A17" t="s">
         <v>265</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3916,13 +4493,13 @@
       <c r="A18" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3930,13 +4507,13 @@
       <c r="A19" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3944,13 +4521,13 @@
       <c r="A20" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3958,13 +4535,13 @@
       <c r="A21" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3972,13 +4549,13 @@
       <c r="A22" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3986,13 +4563,13 @@
       <c r="A23" t="s">
         <v>271</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4000,13 +4577,13 @@
       <c r="A24" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4014,13 +4591,13 @@
       <c r="A25" t="s">
         <v>273</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4028,13 +4605,13 @@
       <c r="A26" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4042,13 +4619,13 @@
       <c r="A27" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4056,13 +4633,13 @@
       <c r="A28" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4070,13 +4647,13 @@
       <c r="A29" t="s">
         <v>277</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4084,13 +4661,13 @@
       <c r="A30" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" t="s">
         <v>79</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4098,13 +4675,13 @@
       <c r="A31" t="s">
         <v>279</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4112,13 +4689,13 @@
       <c r="A32" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4126,10 +4703,10 @@
       <c r="A33" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4137,10 +4714,10 @@
       <c r="A34" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4148,10 +4725,10 @@
       <c r="A35" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4159,10 +4736,10 @@
       <c r="A36" t="s">
         <v>284</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4170,10 +4747,10 @@
       <c r="A37" t="s">
         <v>285</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4181,7 +4758,7 @@
       <c r="A38" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4189,7 +4766,7 @@
       <c r="A39" t="s">
         <v>287</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4197,7 +4774,7 @@
       <c r="A40" t="s">
         <v>288</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4205,7 +4782,7 @@
       <c r="A41" t="s">
         <v>289</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4213,7 +4790,7 @@
       <c r="A42" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4221,7 +4798,7 @@
       <c r="A43" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4229,7 +4806,7 @@
       <c r="A44" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" t="s">
         <v>49</v>
       </c>
     </row>
